--- a/tables_and_figures/siteCountTable.xlsx
+++ b/tables_and_figures/siteCountTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">dog</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">sample</t>
   </si>
   <si>
+    <t xml:space="preserve">liverLobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timePoint</t>
+  </si>
+  <si>
     <t xml:space="preserve">expType</t>
   </si>
   <si>
@@ -44,6 +50,12 @@
     <t xml:space="preserve">GTSP2160</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y7</t>
+  </si>
+  <si>
     <t xml:space="preserve">SingleChain</t>
   </si>
   <si>
@@ -59,30 +71,51 @@
     <t xml:space="preserve">GTSP2163</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y6</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP2164</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP2165</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">M06</t>
   </si>
   <si>
     <t xml:space="preserve">GTSP2175</t>
   </si>
   <si>
+    <t xml:space="preserve">y2</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP2176</t>
   </si>
   <si>
     <t xml:space="preserve">GTSP2177</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linus</t>
   </si>
   <si>
     <t xml:space="preserve">GTSP2166</t>
   </si>
   <si>
+    <t xml:space="preserve">y10</t>
+  </si>
+  <si>
     <t xml:space="preserve">SplitChain</t>
   </si>
   <si>
@@ -98,16 +131,28 @@
     <t xml:space="preserve">GTSP2169</t>
   </si>
   <si>
+    <t xml:space="preserve">y8.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP2170</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP2171</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">J60</t>
   </si>
   <si>
     <t xml:space="preserve">GTSP2172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y9.5</t>
   </si>
   <si>
     <t xml:space="preserve">GTSP2173</t>
@@ -470,472 +515,586 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>110.31</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>54</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>361</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>86.9879518072289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>123.83</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>114</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>629</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>84.656796769852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.65</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>112.62</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>475</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>82.6086956521739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.27</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>110.47</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>57</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>384</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>87.0748299319728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>154.32</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>74</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>513</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>87.3935264054515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.42</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>126.71</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>33</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>517</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.78</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>221.69</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>336</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>798</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>70.3703703703704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.04</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>100.26</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>163</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>721</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>81.5610859728507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.22</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>218.04</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>296</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>773</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>72.310570626754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.54</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>73.89</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>31</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>347</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>91.7989417989418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.14</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>59.22</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>31</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>101</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>76.5151515151515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.62</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>148.12</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>75</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>492</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>86.7724867724868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.14</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>157.31</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>73</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>142</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>66.046511627907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="n">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.07</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>123.9</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>55</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>110</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>66.6666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="n">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.18</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>244.65</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>35</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>90</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="n">
         <v>7.28</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>194.45</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>114</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>933</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>89.1117478510029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="n">
         <v>3.06</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>123.72</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>100</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>909</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>90.0891972249752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.33</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>111.78</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>70</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>498</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>87.6760563380282</v>
       </c>
     </row>

--- a/tables_and_figures/siteCountTable.xlsx
+++ b/tables_and_figures/siteCountTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">dog</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t xml:space="preserve">nVectorSites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nSitesMassCorrected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nSitesVCNCorrected</t>
   </si>
   <si>
     <t xml:space="preserve">percentSitesInVector</t>
@@ -521,22 +527,28 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>0.27</v>
@@ -551,24 +563,30 @@
         <v>361</v>
       </c>
       <c r="J2" t="n">
+        <v>0.489529507750884</v>
+      </c>
+      <c r="K2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L2" t="n">
         <v>86.9879518072289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>1.14</v>
@@ -583,24 +601,30 @@
         <v>629</v>
       </c>
       <c r="J3" t="n">
+        <v>0.920616974884923</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
         <v>84.656796769852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>0.65</v>
@@ -615,24 +639,30 @@
         <v>475</v>
       </c>
       <c r="J4" t="n">
+        <v>0.887941751021133</v>
+      </c>
+      <c r="K4" t="n">
+        <v>153.846153846154</v>
+      </c>
+      <c r="L4" t="n">
         <v>82.6086956521739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>0.27</v>
@@ -647,24 +677,30 @@
         <v>384</v>
       </c>
       <c r="J5" t="n">
+        <v>0.515977188376935</v>
+      </c>
+      <c r="K5" t="n">
+        <v>211.111111111111</v>
+      </c>
+      <c r="L5" t="n">
         <v>87.0748299319728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
         <v>0.23</v>
@@ -679,24 +715,30 @@
         <v>513</v>
       </c>
       <c r="J6" t="n">
+        <v>0.479523068947641</v>
+      </c>
+      <c r="K6" t="n">
+        <v>321.739130434783</v>
+      </c>
+      <c r="L6" t="n">
         <v>87.3935264054515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>0.42</v>
@@ -711,24 +753,30 @@
         <v>517</v>
       </c>
       <c r="J7" t="n">
+        <v>0.260437218846184</v>
+      </c>
+      <c r="K7" t="n">
+        <v>78.5714285714286</v>
+      </c>
+      <c r="L7" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>0.78</v>
@@ -743,24 +791,30 @@
         <v>798</v>
       </c>
       <c r="J8" t="n">
+        <v>1.51562993369119</v>
+      </c>
+      <c r="K8" t="n">
+        <v>430.769230769231</v>
+      </c>
+      <c r="L8" t="n">
         <v>70.3703703703704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>2.04</v>
@@ -775,24 +829,30 @@
         <v>721</v>
       </c>
       <c r="J9" t="n">
+        <v>1.62577299022541</v>
+      </c>
+      <c r="K9" t="n">
+        <v>79.9019607843137</v>
+      </c>
+      <c r="L9" t="n">
         <v>81.5610859728507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>1.22</v>
@@ -807,24 +867,30 @@
         <v>773</v>
       </c>
       <c r="J10" t="n">
+        <v>1.35754907356448</v>
+      </c>
+      <c r="K10" t="n">
+        <v>242.622950819672</v>
+      </c>
+      <c r="L10" t="n">
         <v>72.310570626754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>0.54</v>
@@ -839,24 +905,30 @@
         <v>347</v>
       </c>
       <c r="J11" t="n">
+        <v>0.419542563269725</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57.4074074074074</v>
+      </c>
+      <c r="L11" t="n">
         <v>91.7989417989418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>0.14</v>
@@ -871,24 +943,30 @@
         <v>101</v>
       </c>
       <c r="J12" t="n">
+        <v>0.523471800067545</v>
+      </c>
+      <c r="K12" t="n">
+        <v>221.428571428571</v>
+      </c>
+      <c r="L12" t="n">
         <v>76.5151515151515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="F13" t="n">
         <v>0.62</v>
@@ -903,24 +981,30 @@
         <v>492</v>
       </c>
       <c r="J13" t="n">
+        <v>0.506346205779098</v>
+      </c>
+      <c r="K13" t="n">
+        <v>120.967741935484</v>
+      </c>
+      <c r="L13" t="n">
         <v>86.7724867724868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
         <v>0.14</v>
@@ -935,24 +1019,30 @@
         <v>142</v>
       </c>
       <c r="J14" t="n">
+        <v>0.464051872099676</v>
+      </c>
+      <c r="K14" t="n">
+        <v>521.428571428571</v>
+      </c>
+      <c r="L14" t="n">
         <v>66.046511627907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
         <v>0.07</v>
@@ -967,24 +1057,30 @@
         <v>110</v>
       </c>
       <c r="J15" t="n">
+        <v>0.443906376109766</v>
+      </c>
+      <c r="K15" t="n">
+        <v>785.714285714286</v>
+      </c>
+      <c r="L15" t="n">
         <v>66.6666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
         <v>0.18</v>
@@ -999,24 +1095,30 @@
         <v>90</v>
       </c>
       <c r="J16" t="n">
+        <v>0.143061516452074</v>
+      </c>
+      <c r="K16" t="n">
+        <v>194.444444444444</v>
+      </c>
+      <c r="L16" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
         <v>7.28</v>
@@ -1031,24 +1133,30 @@
         <v>933</v>
       </c>
       <c r="J17" t="n">
+        <v>0.586268963743893</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.6593406593407</v>
+      </c>
+      <c r="L17" t="n">
         <v>89.1117478510029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" t="n">
         <v>3.06</v>
@@ -1063,24 +1171,30 @@
         <v>909</v>
       </c>
       <c r="J18" t="n">
+        <v>0.808276753960556</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32.6797385620915</v>
+      </c>
+      <c r="L18" t="n">
         <v>90.0891972249752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="n">
         <v>1.33</v>
@@ -1095,6 +1209,12 @@
         <v>498</v>
       </c>
       <c r="J19" t="n">
+        <v>0.626230094829129</v>
+      </c>
+      <c r="K19" t="n">
+        <v>52.6315789473684</v>
+      </c>
+      <c r="L19" t="n">
         <v>87.6760563380282</v>
       </c>
     </row>
